--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_478__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_478__Reeval_LHS_Modell_1.1.xlsx
@@ -5882,16 +5882,16 @@
                   <c:v>16.95660781860352</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.73072052001953</c:v>
+                  <c:v>16.73072242736816</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>30.49282836914062</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.66518211364746</c:v>
+                  <c:v>16.66518020629883</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.12864875793457</c:v>
+                  <c:v>31.1286506652832</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>16.84284591674805</c:v>
@@ -5900,7 +5900,7 @@
                   <c:v>17.33558082580566</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.71240615844727</c:v>
+                  <c:v>16.71240425109863</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18.66777420043945</c:v>
@@ -5915,7 +5915,7 @@
                   <c:v>19.15750122070312</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.70951271057129</c:v>
+                  <c:v>30.70951080322266</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>16.85314178466797</c:v>
@@ -5924,10 +5924,10 @@
                   <c:v>27.5073127746582</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.71410942077637</c:v>
+                  <c:v>16.714111328125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.69347190856934</c:v>
+                  <c:v>16.6934700012207</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>16.81921577453613</c:v>
@@ -5936,7 +5936,7 @@
                   <c:v>31.1957893371582</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29.33409118652344</c:v>
+                  <c:v>29.3340892791748</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>21.65717315673828</c:v>
@@ -5945,13 +5945,13 @@
                   <c:v>31.42433166503906</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.71422576904297</c:v>
+                  <c:v>16.7142276763916</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25.58548355102539</c:v>
+                  <c:v>25.58548545837402</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16.7142276763916</c:v>
+                  <c:v>16.71422958374023</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>16.80148124694824</c:v>
@@ -5960,10 +5960,10 @@
                   <c:v>16.86596870422363</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16.71455574035645</c:v>
+                  <c:v>16.71455764770508</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>21.99197959899902</c:v>
+                  <c:v>21.99198341369629</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>16.71749877929688</c:v>
@@ -5972,19 +5972,19 @@
                   <c:v>16.84408187866211</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.69882965087891</c:v>
+                  <c:v>16.69882774353027</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>30.22087860107422</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17.4827823638916</c:v>
+                  <c:v>17.48278427124023</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>16.71418571472168</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>19.79296875</c:v>
+                  <c:v>19.79297065734863</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>16.71408081054688</c:v>
@@ -5999,10 +5999,10 @@
                   <c:v>30.98900604248047</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>15.53675937652588</c:v>
+                  <c:v>15.53675842285156</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>16.82722663879395</c:v>
+                  <c:v>16.82722854614258</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>22.74767112731934</c:v>
@@ -6011,10 +6011,10 @@
                   <c:v>16.72404098510742</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>17.42562866210938</c:v>
+                  <c:v>17.42562675476074</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>27.90511512756348</c:v>
+                  <c:v>27.90511894226074</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>16.70333290100098</c:v>
@@ -6056,7 +6056,7 @@
                   <c:v>16.75029373168945</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>29.69381523132324</c:v>
+                  <c:v>29.69381713867188</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>16.83406257629395</c:v>
@@ -6071,19 +6071,19 @@
                   <c:v>16.71707534790039</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>17.59115791320801</c:v>
+                  <c:v>17.59115982055664</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>16.5620288848877</c:v>
+                  <c:v>16.56203079223633</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>17.07904815673828</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>17.23378372192383</c:v>
+                  <c:v>17.2337818145752</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>26.99584579467773</c:v>
+                  <c:v>26.99584770202637</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>16.71407318115234</c:v>
@@ -6095,10 +6095,10 @@
                   <c:v>17.20527839660645</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>27.7154483795166</c:v>
+                  <c:v>27.7154541015625</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>28.70503997802734</c:v>
+                  <c:v>28.70504188537598</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>18.09885215759277</c:v>
@@ -6113,10 +6113,10 @@
                   <c:v>18.06966972351074</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>16.75790786743164</c:v>
+                  <c:v>16.75790596008301</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>16.9238109588623</c:v>
+                  <c:v>16.92380905151367</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>17.2807788848877</c:v>
@@ -6128,7 +6128,7 @@
                   <c:v>16.71633720397949</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>14.97489452362061</c:v>
+                  <c:v>14.97489356994629</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>16.71039199829102</c:v>
@@ -6143,7 +6143,7 @@
                   <c:v>16.72132301330566</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>26.85634422302246</c:v>
+                  <c:v>26.85634613037109</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>30.0168342590332</c:v>
@@ -6152,7 +6152,7 @@
                   <c:v>16.7142162322998</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>16.70676231384277</c:v>
+                  <c:v>16.70676422119141</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>16.71374702453613</c:v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.73072052001953</v>
+        <v>16.73072242736816</v>
       </c>
       <c r="G5">
         <v>78</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16.66518211364746</v>
+        <v>16.66518020629883</v>
       </c>
       <c r="G7">
         <v>78</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>31.12864875793457</v>
+        <v>31.1286506652832</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>16.71240615844727</v>
+        <v>16.71240425109863</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>49.8428</v>
       </c>
       <c r="F16">
-        <v>30.70951271057129</v>
+        <v>30.70951080322266</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>42.8544</v>
       </c>
       <c r="F19">
-        <v>16.71410942077637</v>
+        <v>16.714111328125</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>16.69347190856934</v>
+        <v>16.6934700012207</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.33409118652344</v>
+        <v>29.3340892791748</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>16.71422576904297</v>
+        <v>16.7142276763916</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>57.5132</v>
       </c>
       <c r="F27">
-        <v>25.58548355102539</v>
+        <v>25.58548545837402</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>16.7142276763916</v>
+        <v>16.71422958374023</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>16.71455574035645</v>
+        <v>16.71455764770508</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>21.99197959899902</v>
+        <v>21.99198341369629</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>16.69882965087891</v>
+        <v>16.69882774353027</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>17.4827823638916</v>
+        <v>17.48278427124023</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>19.79296875</v>
+        <v>19.79297065734863</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>15.53675937652588</v>
+        <v>15.53675842285156</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>16.82722663879395</v>
+        <v>16.82722854614258</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>17.42562866210938</v>
+        <v>17.42562675476074</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>34.9546</v>
       </c>
       <c r="F49">
-        <v>27.90511512756348</v>
+        <v>27.90511894226074</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>48.1148</v>
       </c>
       <c r="F63">
-        <v>29.69381523132324</v>
+        <v>29.69381713867188</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>17.59115791320801</v>
+        <v>17.59115982055664</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>16.5620288848877</v>
+        <v>16.56203079223633</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>17.23378372192383</v>
+        <v>17.2337818145752</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>52.2351</v>
       </c>
       <c r="F72">
-        <v>26.99584579467773</v>
+        <v>26.99584770202637</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>27.7154483795166</v>
+        <v>27.7154541015625</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>28.70503997802734</v>
+        <v>28.70504188537598</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>16.75790786743164</v>
+        <v>16.75790596008301</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>16.9238109588623</v>
+        <v>16.92380905151367</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>14.97489452362061</v>
+        <v>14.97489356994629</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>26.85634422302246</v>
+        <v>26.85634613037109</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>44.9896</v>
       </c>
       <c r="F95">
-        <v>16.70676231384277</v>
+        <v>16.70676422119141</v>
       </c>
     </row>
     <row r="96" spans="1:6">
